--- a/src/dsp-dagster/data/Kazernes.xlsx
+++ b/src/dsp-dagster/data/Kazernes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Blad1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Kazernes" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -166,9 +166,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -185,15 +185,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -426,7 +423,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -440,7 +437,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -454,7 +451,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -468,7 +465,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -482,7 +479,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -496,7 +493,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>6.0</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -510,7 +507,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>7.0</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -524,7 +521,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>8.0</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -538,7 +535,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>9.0</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -552,7 +549,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>10.0</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -566,7 +563,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>11.0</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -580,7 +577,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>12.0</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -594,7 +591,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>13.0</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -608,7 +605,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>14.0</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -622,7 +619,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>15.0</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -636,7 +633,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>16.0</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -650,7 +647,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>17.0</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -664,7 +661,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>18.0</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -678,7 +675,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>19.0</v>
       </c>
       <c r="B20" s="1" t="s">
